--- a/input.xlsx
+++ b/input.xlsx
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,12 +1140,10 @@
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11">
-        <f>0.9*0.76</f>
-        <v>0.68400000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="G11" s="11">
-        <f>1.1*0.76</f>
-        <v>0.83600000000000008</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
@@ -1442,13 +1440,13 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="11">
-        <v>6.21</v>
+        <v>3.45</v>
       </c>
       <c r="G19" s="11">
-        <v>7.59</v>
+        <v>10.350000000000001</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
